--- a/Tutorial/input_comp.xlsx
+++ b/Tutorial/input_comp.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonzz/Documents/GitHub/expt_mass_balance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonzz/Documents/GitHub/MassBalanceCal/Tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5F4541-BCCC-8C40-9176-78FA26B09B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C1094-CE16-F247-A38D-EA3A82451514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" activeTab="3" xr2:uid="{6109821C-9274-084C-8F3A-43209CC8EA0E}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{6109821C-9274-084C-8F3A-43209CC8EA0E}"/>
   </bookViews>
   <sheets>
-    <sheet name="gl" sheetId="1" r:id="rId1"/>
+    <sheet name="melt" sheetId="1" r:id="rId1"/>
     <sheet name="ol" sheetId="3" r:id="rId2"/>
     <sheet name="sp" sheetId="4" r:id="rId3"/>
     <sheet name="py" sheetId="20" r:id="rId4"/>
@@ -571,9 +571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE5F48-DFBD-1F4D-BF82-9AF479FCB959}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2419,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABEDB6B-5CE6-9F45-A2C4-6E5FBA98B22A}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
